--- a/Device Interaction/Automation/Speech Synthesizers.xlsx
+++ b/Device Interaction/Automation/Speech Synthesizers.xlsx
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="13">
   <si>
     <t>Application</t>
   </si>
@@ -107,7 +107,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -122,11 +122,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
     </font>
   </fonts>
@@ -196,21 +191,21 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="21" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="21" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
@@ -223,7 +218,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="46" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="21" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="6" fontId="4" numFmtId="21" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -286,9 +281,8 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/727c512e787d8547ca4bcfd58cc777cc8999866d/third-party/BetterLaundryMonitor.groovy","BetterLaundryMonitor.groovy")</f>
-        <v>BetterLaundryMonitor.groovy</v>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>6</v>
@@ -310,11 +304,10 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/FireCO2Alarm.groovy","FireCO2Alarm.groovy")</f>
-        <v>FireCO2Alarm.groovy</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -328,20 +321,19 @@
       <c r="A5" s="4">
         <v>3.0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/WindowOrDoorOpen.groovy","WindowOrDoorOpen.groovy")</f>
-        <v>WindowOrDoorOpen.groovy</v>
-      </c>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="9" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -398,9 +390,8 @@
       <c r="C3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/727c512e787d8547ca4bcfd58cc777cc8999866d/third-party/BetterLaundryMonitor.groovy","BetterLaundryMonitor.groovy")</f>
-        <v>BetterLaundryMonitor.groovy</v>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>6</v>
@@ -422,11 +413,10 @@
       <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="7" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/FireCO2Alarm.groovy","FireCO2Alarm.groovy")</f>
-        <v>FireCO2Alarm.groovy</v>
-      </c>
-      <c r="E4" s="9">
+      <c r="D4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
         <v>0.0011921296296296296</v>
       </c>
       <c r="F4" s="8" t="s">
@@ -440,20 +430,19 @@
       <c r="A5" s="4">
         <v>3.0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="7" t="str">
-        <f>HYPERLINK("https://github.uci.edu/rtrimana/smartthings_app/blob/master/third-party/WindowOrDoorOpen.groovy","WindowOrDoorOpen.groovy")</f>
-        <v>WindowOrDoorOpen.groovy</v>
-      </c>
-      <c r="E5" s="9">
+      <c r="D5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="11">
         <v>6.134259259259259E-4</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="11">
         <v>9.490740740740741E-4</v>
       </c>
       <c r="G5" s="8" t="s">

--- a/Device Interaction/Automation/Speech Synthesizers.xlsx
+++ b/Device Interaction/Automation/Speech Synthesizers.xlsx
@@ -417,7 +417,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="11">
-        <v>0.0011921296296296296</v>
+        <v>7.986111111111112E-4</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>6</v>
@@ -440,10 +440,10 @@
         <v>3</v>
       </c>
       <c r="E5" s="11">
-        <v>6.134259259259259E-4</v>
+        <v>1.7361111111111112E-4</v>
       </c>
       <c r="F5" s="11">
-        <v>9.490740740740741E-4</v>
+        <v>7.986111111111112E-4</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>6</v>
@@ -467,15 +467,15 @@
       </c>
       <c r="G8" s="15">
         <f>MIN(E3:G5)</f>
-        <v>0.0006134259259</v>
+        <v>0.0001736111111</v>
       </c>
       <c r="H8" s="15">
         <f>MAX(E3:G5)</f>
-        <v>0.00119212963</v>
+        <v>0.0007986111111</v>
       </c>
       <c r="I8" s="15">
         <f>AVERAGE(E3:G5)</f>
-        <v>0.0009182098765</v>
+        <v>0.0005902777778</v>
       </c>
     </row>
     <row r="9">
